--- a/registros_nao_conformidades.xlsx
+++ b/registros_nao_conformidades.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20250" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
   <si>
     <t>Data do Registro</t>
   </si>
@@ -415,19 +414,16 @@
   </si>
   <si>
     <t>acao Coleta: Troca de paciente</t>
+  </si>
+  <si>
+    <t>Data do Fato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,359 +432,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF374151"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -811,309 +485,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1402,890 +791,893 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="30.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="46.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="38.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="83.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="42.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="20.4285714285714" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.140625" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
       <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>59</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
       <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>22</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>22</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>76</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>59</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
         <v>79</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
       <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
         <v>79</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>80</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>22</v>
       </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
       <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
         <v>85</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>86</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>87</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>88</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>89</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
       <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>90</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>91</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>87</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>95</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>96</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>98</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
       <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
         <v>100</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>101</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>102</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
       <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
         <v>104</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>105</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>93</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>106</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>94</v>
       </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
       <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>91</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>93</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
       <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>109</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>93</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
       <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>113</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>9</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
       <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
         <v>116</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>117</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>98</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>118</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
       <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
         <v>116</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>120</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>121</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>122</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
       <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
         <v>112</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>124</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>9</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>125</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>126</v>
       </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
       <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>127</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>93</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>128</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
       <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
         <v>129</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>130</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>93</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>